--- a/FounderDeveloper.xlsx
+++ b/FounderDeveloper.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\founders\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>S.NO</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Angular</t>
   </si>
   <si>
-    <t>Hevery</t>
-  </si>
-  <si>
     <t>Google</t>
   </si>
   <si>
@@ -83,14 +80,112 @@
   </si>
   <si>
     <t>CSS Library</t>
+  </si>
+  <si>
+    <t>Jeremy Ashkenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misko Hevery </t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Michael Bostock, 
+Jeffrey Heer</t>
+  </si>
+  <si>
+    <t>Yahuda katz,
+Tom Date</t>
+  </si>
+  <si>
+    <t>Steve Sanderson</t>
+  </si>
+  <si>
+    <t>Modernizr</t>
+  </si>
+  <si>
+    <t>Faruk Ates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Dahl </t>
+  </si>
+  <si>
+    <t>Aaron Newton</t>
+  </si>
+  <si>
+    <t>Mootools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holouaychuk, Douglas 
+Christopher Wilson  </t>
+  </si>
+  <si>
+    <t>Sam Stephengon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototype </t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>Jordan Walker</t>
+  </si>
+  <si>
+    <t>YUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thomas sha,
+Jerry Yang </t>
+  </si>
+  <si>
+    <t>Yahoo!</t>
+  </si>
+  <si>
+    <t>Dojo</t>
+  </si>
+  <si>
+    <t>Dylan Schiemann,
+Alex Russell</t>
+  </si>
+  <si>
+    <t>BootStrap</t>
+  </si>
+  <si>
+    <t>Mark Otto,
+Jacob Thompson</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Iconic</t>
+  </si>
+  <si>
+    <t>Fontawesome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -118,8 +213,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -531,88 +635,154 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -624,143 +794,250 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
         <v>2005</v>
       </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1">
+        <v>2009</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2006</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>2004</v>
+      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -769,6 +1046,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
